--- a/matlab/equivalent_circuit.xlsx
+++ b/matlab/equivalent_circuit.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>H</t>
   </si>
@@ -73,10 +76,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,18 +130,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +523,7 @@
         <v>376.98</v>
       </c>
       <c r="F5" s="1">
-        <f>($B$4/$B$17)^2*E5</f>
+        <f>($B$4/$B$18)^2*E5</f>
         <v>1.072298666666667</v>
       </c>
       <c r="G5" s="3">
@@ -495,7 +543,7 @@
         <v>201.37015000000002</v>
       </c>
       <c r="F6" s="1">
-        <f>($B$4/$B$17)^2*E6</f>
+        <f>($B$4/$B$18)^2*E6</f>
         <v>0.57278620444444461</v>
       </c>
       <c r="G6" s="3">
@@ -515,7 +563,7 @@
         <v>21349.381236220972</v>
       </c>
       <c r="F7" s="1">
-        <f>($B$4/$B$17)^2*E7</f>
+        <f>($B$4/$B$18)^2*E7</f>
         <v>60.72712884969522</v>
       </c>
       <c r="G7" s="3">
@@ -523,30 +571,53 @@
         <v>5.2417968749999995E-5</v>
       </c>
     </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1568000000000003E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>$C$2*C8</f>
+        <v>16.200087200000002</v>
+      </c>
+      <c r="F8" s="1">
+        <f>($B$4/$B$18)^2*E8</f>
+        <v>4.608024803555557E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F8/$C$2</f>
+        <v>1.4668231111111113E-4</v>
+      </c>
+    </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>33000</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>5.1568000000000003E-2</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <f>$C$2*C12</f>
         <v>16.200087200000002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <f>($B$4/$B$11)^2*E12</f>
         <v>0.95207124040404068</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <f>F12/$C$2</f>
         <v>3.030626262626263E-3</v>
       </c>
@@ -566,7 +637,7 @@
         <v>5.7115611500000005</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F14" si="0">($B$4/$B$11)^2*E13</f>
+        <f t="shared" ref="F13:F16" si="0">($B$4/$B$11)^2*E13</f>
         <v>0.33566566905417822</v>
       </c>
       <c r="G13" s="3">
@@ -614,88 +685,111 @@
         <v>9.7142203124999987E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.8676000000000002E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f>$C$2*C16</f>
+        <v>12.150065400000003</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71405343030303048</v>
+      </c>
+      <c r="G16" s="3">
+        <f>F16/$C$2</f>
+        <v>2.2729696969696974E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>150000</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="7">
         <v>3.8676000000000002E-2</v>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
         <v>5.2E-7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.9338000000000001E-2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>5.6579999999999999E-6</v>
+        <v>1.9338000000000001E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5.6579999999999999E-6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>0</v>
       </c>
     </row>

--- a/matlab/equivalent_circuit.xlsx
+++ b/matlab/equivalent_circuit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>H</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>L',C'</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>H/km</t>
+  </si>
+  <si>
+    <t>ohm/km</t>
+  </si>
+  <si>
+    <t>F/km</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +493,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -489,7 +501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>50</v>
       </c>
@@ -498,17 +510,17 @@
         <v>314.15000000000003</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -531,7 +543,7 @@
         <v>3.4133333333333338E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>0.64100000000000001</v>
       </c>
@@ -551,7 +563,7 @@
         <v>1.8232888888888893E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1.4910000000000001E-7</v>
       </c>
@@ -571,7 +583,7 @@
         <v>5.2417968749999995E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -594,12 +606,12 @@
         <v>1.4668231111111113E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -622,7 +634,7 @@
         <v>3.030626262626263E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -644,8 +656,21 @@
         <f>F13/$C$2</f>
         <v>1.0684885215794307E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <f>C13/$I$13</f>
+        <v>2.2726249999999999E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>0.372</v>
       </c>
@@ -664,28 +689,42 @@
         <f>F14</f>
         <v>2.1862258953168047E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <f t="shared" ref="K14:K15" si="1">C14/$I$13</f>
+        <v>4.65E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>5.7089999999999997E-5</v>
+        <v>5.7089999999999997E-8</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1">
         <f>1/$C$2/C15</f>
-        <v>55.757448630592876</v>
+        <v>55757.448630592873</v>
       </c>
       <c r="F15" s="1">
         <f>($B$4/$B$11)^2*E15</f>
-        <v>3.2768381197042649</v>
+        <v>3276.8381197042645</v>
       </c>
       <c r="G15" s="3">
         <f>1/$C$2/F15</f>
-        <v>9.7142203124999987E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>9.7142203124999998E-7</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1362499999999996E-9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -708,7 +747,7 @@
         <v>2.2729696969696974E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>150000</v>
       </c>
@@ -722,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -733,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -743,24 +782,51 @@
       <c r="D20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1">
+        <f>C20/$I$20</f>
+        <v>1.7241379310344828E-5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <f t="shared" ref="K21:K22" si="2">C21/$I$20</f>
+        <v>9.6551724137931036E-4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>5.2E-7</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9655172413793104E-9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -770,8 +836,9 @@
       <c r="D23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -782,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>

--- a/matlab/equivalent_circuit.xlsx
+++ b/matlab/equivalent_circuit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>H</t>
   </si>
@@ -82,13 +82,116 @@
   </si>
   <si>
     <t>F/km</t>
+  </si>
+  <si>
+    <t>Aalto Case</t>
+  </si>
+  <si>
+    <t>Lulea Case</t>
+  </si>
+  <si>
+    <t>Trafo 115/34.5</t>
+  </si>
+  <si>
+    <t>Trafo 34.5/0.69</t>
+  </si>
+  <si>
+    <t>Induction mach</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Cap. Banks</t>
+  </si>
+  <si>
+    <t>OHL</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>S/Sf</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>100x</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>MVAr</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>uF/km</t>
+  </si>
+  <si>
+    <t>X/R</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>TO 34.5 kV</t>
+  </si>
+  <si>
+    <t>abs(Z)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>(total)</t>
+  </si>
+  <si>
+    <t>(one IM)</t>
+  </si>
+  <si>
+    <t>neglected</t>
+  </si>
+  <si>
+    <t>both? (parallel conn!)</t>
+  </si>
+  <si>
+    <t>To 33kV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +212,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +248,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -152,6 +283,28 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -481,386 +634,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L25"/>
+  <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="12"/>
+      <c r="K1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1">
+        <f>2*3.1415*50</f>
+        <v>314.15000000000003</v>
+      </c>
+      <c r="T1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C2">
-        <f>2*3.1415*B2</f>
+      <c r="C3">
+        <f>2*3.1415*B3</f>
         <v>314.15000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="4" t="s">
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>115</v>
+      </c>
+      <c r="M3">
+        <v>34.5</v>
+      </c>
+      <c r="N3">
+        <v>250</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <f>M3^2/N3*P3</f>
+        <v>0.85697999999999996</v>
+      </c>
+      <c r="U3" s="14">
+        <f>T3/SQRT(1+R3^2)</f>
+        <v>7.1168315325058074E-2</v>
+      </c>
+      <c r="V3" s="14">
+        <f>SQRT(T3^2-U3^2)</f>
+        <v>0.85401978390069688</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="H4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>34.5</v>
+      </c>
+      <c r="M4">
+        <v>0.69</v>
+      </c>
+      <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>L4^2/N4*P4</f>
+        <v>23.805000000000003</v>
+      </c>
+      <c r="U4" s="16">
+        <f>T4/SQRT(1+R4^2)</f>
+        <v>4.6685445969644714</v>
+      </c>
+      <c r="V4" s="16">
+        <f>SQRT(T4^2-U4^2)</f>
+        <v>23.342722984822359</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>0.69</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="R5">
+        <v>8.5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="19">
+        <f>M5^2/N5*P5*(34.5/0.69)^2</f>
+        <v>101.88540000000002</v>
+      </c>
+      <c r="U5" s="18">
+        <f>T5/SQRT(1+R5^2)</f>
+        <v>11.904417244903293</v>
+      </c>
+      <c r="V5" s="18">
+        <f>SQRT(T5^2-U5^2)</f>
+        <v>101.18754658167799</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1.2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <f>$C$2*C5</f>
-        <v>376.98</v>
-      </c>
-      <c r="F5" s="1">
-        <f>($B$4/$B$18)^2*E5</f>
-        <v>1.072298666666667</v>
-      </c>
-      <c r="G5" s="3">
-        <f>F5/$C$2</f>
-        <v>3.4133333333333338E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>0.64100000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>$C$2*C6</f>
-        <v>201.37015000000002</v>
+        <f>$C$3*C6</f>
+        <v>376.98</v>
       </c>
       <c r="F6" s="1">
-        <f>($B$4/$B$18)^2*E6</f>
-        <v>0.57278620444444461</v>
-      </c>
-      <c r="G6" s="3">
-        <f>F6/$C$2</f>
-        <v>1.8232888888888893E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>1.4910000000000001E-7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <f>1/$C$2/C7</f>
-        <v>21349.381236220972</v>
-      </c>
-      <c r="F7" s="1">
-        <f>($B$4/$B$18)^2*E7</f>
-        <v>60.72712884969522</v>
-      </c>
-      <c r="G7" s="3">
-        <f>1/$C$2/F7</f>
-        <v>5.2417968749999995E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.1568000000000003E-2</v>
+        <f>($B$5/$B$20)^2*E6</f>
+        <v>1.072298666666667</v>
+      </c>
+      <c r="G6" s="24">
+        <f>F6/$C$3</f>
+        <v>3.4133333333333338E-3</v>
+      </c>
+      <c r="H6" s="22">
+        <f>($B$5/$B$13)^2*E6/$C$3</f>
+        <v>7.052341597796144E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>34.5</v>
+      </c>
+      <c r="P6">
+        <v>0.13</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="17">
+        <f>1000000/(S1*L23*P7)</f>
+        <v>277.16088309277728</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="17">
+        <f>T6</f>
+        <v>277.16088309277728</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.64100000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f>$C$2*C8</f>
+        <f>$C$3*C8</f>
+        <v>201.37015000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <f>($B$5/$B$20)^2*E8</f>
+        <v>0.57278620444444461</v>
+      </c>
+      <c r="G8" s="24">
+        <f>F8/$C$3</f>
+        <v>1.8232888888888893E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f>($B$5/$B$13)^2*E8/$C$3</f>
+        <v>3.7671258034894406E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>34.5</v>
+      </c>
+      <c r="N8">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8">
+        <f>M8^2/N8</f>
+        <v>16.53125</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8">
+        <f>T8</f>
+        <v>16.53125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>1.4910000000000001E-7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f>1/$C$3/C9</f>
+        <v>21349.381236220972</v>
+      </c>
+      <c r="F9" s="1">
+        <f>($B$5/$B$20)^2*E9</f>
+        <v>60.72712884969522</v>
+      </c>
+      <c r="G9" s="24">
+        <f>1/($C$3*F9)</f>
+        <v>5.2417968749999988E-5</v>
+      </c>
+      <c r="H9" s="22">
+        <f>1/(C3*($B$5/$B$13)^2*E9)</f>
+        <v>2.5370296875E-6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>115</v>
+      </c>
+      <c r="P9">
+        <v>0.36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9">
+        <v>9.5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9">
+        <f>P9*35*(34.5/115)^2/2</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="U9" s="14">
+        <f>T9/SQRT(1+R9^2)</f>
+        <v>5.9356272821730234E-2</v>
+      </c>
+      <c r="V9" s="15">
+        <f>SQRT(T9^2-U9^2)</f>
+        <v>0.56388459180643724</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.1568000000000003E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f>$C$3*C10</f>
         <v>16.200087200000002</v>
       </c>
-      <c r="F8" s="1">
-        <f>($B$4/$B$18)^2*E8</f>
+      <c r="F10" s="1">
+        <f>($B$5/$B$20)^2*E10</f>
         <v>4.608024803555557E-2</v>
       </c>
-      <c r="G8" s="3">
-        <f>F8/$C$2</f>
+      <c r="G10" s="24">
+        <f>F10/$C$3</f>
         <v>1.4668231111111113E-4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="H10" s="22">
+        <f>($B$5/$B$13)^2*E10/$C$3</f>
+        <v>3.030626262626263E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>3500</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="T10">
+        <f>M10^2/N10*(34.5/115)^2</f>
+        <v>0.34007142857142852</v>
+      </c>
+      <c r="U10" s="14">
+        <f>T10/SQRT(1+R10^2)</f>
+        <v>1.8863768815916539E-2</v>
+      </c>
+      <c r="V10" s="15">
+        <f>SQRT(T10^2-U10^2)</f>
+        <v>0.33954783868649768</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G12" s="25"/>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>33000</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="25"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C14" s="6">
         <v>5.1568000000000003E-2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
-        <f>$C$2*C12</f>
+      <c r="E14" s="6">
+        <f>$C$3*C14</f>
         <v>16.200087200000002</v>
       </c>
-      <c r="F12" s="6">
-        <f>($B$4/$B$11)^2*E12</f>
+      <c r="F14" s="6">
+        <f>($B$5/$B$13)^2*E14</f>
         <v>0.95207124040404068</v>
       </c>
-      <c r="G12" s="7">
-        <f>F12/$C$2</f>
+      <c r="G14" s="26">
+        <f>F14/$C$3</f>
         <v>3.030626262626263E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="H14" s="23"/>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
         <v>1.8180999999999999E-2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <f>$C$2*C13</f>
+      <c r="E15" s="1">
+        <f>$C$3*C15</f>
         <v>5.7115611500000005</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:F16" si="0">($B$4/$B$11)^2*E13</f>
-        <v>0.33566566905417822</v>
-      </c>
-      <c r="G13" s="3">
-        <f>F13/$C$2</f>
-        <v>1.0684885215794307E-3</v>
-      </c>
-      <c r="I13">
+      <c r="F15" s="1">
+        <f>($B$13/$B$20)^2*E15</f>
+        <v>0.27643955966</v>
+      </c>
+      <c r="G15" s="24">
+        <f>F15/$C$3</f>
+        <v>8.7996039999999986E-4</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.372</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>C16</f>
+        <v>0.372</v>
+      </c>
+      <c r="F16" s="1">
+        <f>($B$13/$B$20)^2*E16</f>
+        <v>1.8004799999999998E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <f>F16</f>
+        <v>1.8004799999999998E-2</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>5.7089999999999997E-8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <f>1/$C$3/C17</f>
+        <v>55757.448630592873</v>
+      </c>
+      <c r="F17" s="1">
+        <f>($B$13/$B$20)^2*E17</f>
+        <v>2698.6605137206948</v>
+      </c>
+      <c r="G17" s="24">
+        <f>1/$C$3/F17</f>
+        <v>1.1795454545454547E-6</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3.8676000000000002E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f>$C$3*C18</f>
+        <v>12.150065400000003</v>
+      </c>
+      <c r="F18" s="1">
+        <f>($B$13/$B$20)^2*E18</f>
+        <v>0.58806316536000014</v>
+      </c>
+      <c r="G18" s="24">
+        <f>F18/$C$3</f>
+        <v>1.8719184000000003E-3</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>150000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20">
         <v>8</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L20">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3.8676000000000002E-2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="K23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="13">
+        <f>SUM(L13:L22)/1000</f>
+        <v>45.94</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="1">
-        <f>C13/$I$13</f>
-        <v>2.2726249999999999E-3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>0.372</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f>C14</f>
-        <v>0.372</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1862258953168047E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <f>F14</f>
-        <v>2.1862258953168047E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" ref="K14:K15" si="1">C14/$I$13</f>
-        <v>4.65E-2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>5.7089999999999997E-8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <f>1/$C$2/C15</f>
-        <v>55757.448630592873</v>
-      </c>
-      <c r="F15" s="1">
-        <f>($B$4/$B$11)^2*E15</f>
-        <v>3276.8381197042645</v>
-      </c>
-      <c r="G15" s="3">
-        <f>1/$C$2/F15</f>
-        <v>9.7142203124999998E-7</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1362499999999996E-9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3.8676000000000002E-2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <f>$C$2*C16</f>
-        <v>12.150065400000003</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71405343030303048</v>
-      </c>
-      <c r="G16" s="3">
-        <f>F16/$C$2</f>
-        <v>2.2729696969696974E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>150000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3.8676000000000002E-2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="1">
-        <f>C20/$I$20</f>
-        <v>1.7241379310344828E-5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" ref="K21:K22" si="2">C21/$I$20</f>
-        <v>9.6551724137931036E-4</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
         <v>5.2E-7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9655172413793104E-9</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.9338000000000001E-2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.6579999999999999E-6</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9338000000000001E-2</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5.6579999999999999E-6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1">
+        <f>C15/$B$29</f>
+        <v>2.2726249999999999E-3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <f>C16/$B$29</f>
+        <v>4.65E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <f>C17/$B$29</f>
+        <v>7.1362499999999996E-9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1">
+        <f>C22/$B$36</f>
+        <v>1.7241379310344828E-5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <f>C23/$B$36</f>
+        <v>9.6551724137931036E-4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <f>C24/$B$36</f>
+        <v>8.9655172413793104E-9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
